--- a/MakeMyTrip/TestData/MakeMyTrip.xlsx
+++ b/MakeMyTrip/TestData/MakeMyTrip.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Section_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Section_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Section_3" sheetId="3" r:id="rId3"/>
+    <sheet name="Section_3360" sheetId="2" r:id="rId2"/>
+    <sheet name="Section_3_716" sheetId="3" r:id="rId3"/>
+    <sheet name="Section_3_461" sheetId="10" r:id="rId4"/>
+    <sheet name="Section_3_451" sheetId="12" r:id="rId5"/>
+    <sheet name="Section_3_45" sheetId="15" r:id="rId6"/>
+    <sheet name="Section_3_496" r:id="rId10" sheetId="16"/>
+    <sheet name="Section_3_134" r:id="rId11" sheetId="17"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>TC_ID</t>
   </si>
@@ -40,12 +45,16 @@
   </si>
   <si>
     <t>Jyoti H M</t>
+  </si>
+  <si>
+    <t>₹ 43,240</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,14 +369,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -397,14 +406,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -416,7 +469,67 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MakeMyTrip/TestData/MakeMyTrip.xlsx
+++ b/MakeMyTrip/TestData/MakeMyTrip.xlsx
@@ -4,22 +4,34 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6060" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Section_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Section_3360" sheetId="2" r:id="rId2"/>
-    <sheet name="Section_3_716" sheetId="3" r:id="rId3"/>
-    <sheet name="Section_3_461" sheetId="10" r:id="rId4"/>
-    <sheet name="Section_3_451" sheetId="12" r:id="rId5"/>
-    <sheet name="Section_3_45" sheetId="15" r:id="rId6"/>
-    <sheet name="Section_3_496" r:id="rId10" sheetId="16"/>
-    <sheet name="Section_3_134" r:id="rId11" sheetId="17"/>
+    <sheet name="Section_2" sheetId="26" r:id="rId2"/>
+    <sheet name="Section_3_714" sheetId="29" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="45" r:id="rId4"/>
+    <sheet name="Section_3_178" sheetId="30" r:id="rId5"/>
+    <sheet name="Section_3_124" sheetId="31" r:id="rId6"/>
+    <sheet name="Section_3_277" sheetId="32" r:id="rId7"/>
+    <sheet name="Section_3_563" sheetId="33" r:id="rId8"/>
+    <sheet name="Section_3_2" sheetId="34" r:id="rId9"/>
+    <sheet name="Section_3_286" sheetId="35" r:id="rId10"/>
+    <sheet name="Section_3_89" sheetId="36" r:id="rId11"/>
+    <sheet name="Section_3_302" sheetId="37" r:id="rId12"/>
+    <sheet name="Section_3_33" sheetId="38" r:id="rId13"/>
+    <sheet name="Section_3_378" sheetId="39" r:id="rId14"/>
+    <sheet name="Section_3_300" sheetId="40" r:id="rId15"/>
+    <sheet name="Section_3_431" sheetId="41" r:id="rId16"/>
+    <sheet name="Section_3_648" sheetId="42" r:id="rId17"/>
+    <sheet name="Section_3_493" sheetId="43" r:id="rId18"/>
+    <sheet name="Section_3_869" sheetId="44" r:id="rId19"/>
+    <sheet name="Section_3_142" sheetId="46" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:N18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>TC_ID</t>
   </si>
@@ -47,18 +59,58 @@
     <t>Jyoti H M</t>
   </si>
   <si>
-    <t>₹ 43,240</t>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>NON STOP</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>jyotijogur@gmail.com</t>
+  </si>
+  <si>
+    <t>expValue</t>
+  </si>
+  <si>
+    <t>Traveller</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>₹ 45,032</t>
+  </si>
+  <si>
+    <t>₹ 46,820₹ 45,027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,14 +133,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,19 +422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +446,20 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -400,6 +469,129 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -407,56 +599,118 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -472,7 +726,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -487,13 +741,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -508,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -520,13 +768,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
